--- a/summary_of_experiments.xlsx
+++ b/summary_of_experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\UoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3AC839-B4C8-42ED-8754-19F60749AA15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095DC936-9853-4EEF-BB09-B58A32F73531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="4230" windowWidth="18360" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,19 +91,6 @@
   </si>
   <si>
     <t xml:space="preserve">GloVe, Pre-trained word vectors from Twitter </t>
-  </si>
-  <si>
-    <t>A Neural Network with:
-1. Embedding Layer
-2. BiLSTM Layer
-3. GlobalMaxPooling1D 
-4. BatchNormalization
-5. Drop out of 0.5
-6. Dense Layer with relu activation
-7. Drop out of 0.5
-8. Dense with with relu activation
-9. Dropout of 0.5
-10. Dense with sigmoid activation</t>
   </si>
   <si>
     <t>27B tokens of 200 Dimensional vectors,
@@ -144,6 +131,19 @@
 'learning_rate': 0.1, 
 'gamma': 0.05, 
 'alpha': 7</t>
+  </si>
+  <si>
+    <t>Ensemble of 5 Neural Networks with architecture:
+1. Embedding Layer
+2. BiLSTM Layer
+3. GlobalMaxPooling1D 
+4. BatchNormalization
+5. Drop out of 0.5
+6. Dense Layer with relu activation
+7. Drop out of 0.5
+8. Dense with with relu activation
+9. Dropout of 0.5
+10. Dense with sigmoid activation</t>
   </si>
 </sst>
 </file>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -702,7 +702,7 @@
         <v>0.84040000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="165.75">
+    <row r="4" spans="1:6" ht="144.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -722,7 +722,7 @@
         <v>0.83120000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="140.25">
+    <row r="5" spans="1:6" ht="142.5" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -732,11 +732,11 @@
       <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F5" s="6">
         <v>0.76780000000000004</v>
@@ -747,16 +747,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="F6" s="6">
         <v>0.43140000000000001</v>

--- a/summary_of_experiments.xlsx
+++ b/summary_of_experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\UoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095DC936-9853-4EEF-BB09-B58A32F73531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672E1529-1AA8-4B81-8148-D6CBC8F13319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,7 +133,7 @@
 'alpha': 7</t>
   </si>
   <si>
-    <t>Ensemble of 5 Neural Networks with architecture:
+    <t>An ensemble of 5 Neural Networks each having the architecture:
 1. Embedding Layer
 2. BiLSTM Layer
 3. GlobalMaxPooling1D 
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -722,7 +722,7 @@
         <v>0.83120000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="142.5" customHeight="1">
+    <row r="5" spans="1:6" ht="153">
       <c r="A5" s="1">
         <v>4</v>
       </c>
